--- a/app/data/Estatisticas.xlsx
+++ b/app/data/Estatisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -546,25 +546,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>TesteBD1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="n">
         <v>0.3</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -589,32 +589,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HST,AST]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -641,14 +641,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HST,AST]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -657,322 +657,322 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>6 de 10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HST,AST]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>9 de 10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>4 de 10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4 de 10</t>
+          <t>5 de 10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -981,57 +981,57 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D18" t="n">
         <v>0.3</v>
@@ -1040,109 +1040,109 @@
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4 de 10</t>
+          <t>5 de 10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR,B365H,B365D,B365A,BWH,BWD,BWA,IWH,IWD,IWA,PSH,PSD,PSA</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>6 de 10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1151,19 +1151,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1176,100 +1176,100 @@
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0.8</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>6 de 10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E24" t="n">
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>6 de 10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D25" t="n">
         <v>0.3</v>
@@ -1282,87 +1282,87 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Teste1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1371,66 +1371,66 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TesteBD1</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E29" t="n">
         <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>6 de 10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1448,23 +1448,23 @@
         <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8 de 10</t>
+          <t>6 de 10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Teste Premier League 0.5 0,2</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1491,445 +1491,185 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E32" t="n">
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>9 de 10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E33" t="n">
         <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E34" t="n">
         <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>7 de 10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E35" t="n">
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Teste</t>
+          <t>Teste 8-10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>100</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1000</v>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5 de 10</t>
+          <t>8 de 10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>100</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>5 de 10</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>100</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>5 de 10</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>100</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>5 de 10</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>100</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>6 de 10</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>100</v>
-      </c>
-      <c r="F41" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>8 de 10</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>[HTHG,HTAG,HTR]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>100</v>
-      </c>
-      <c r="F42" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>7 de 10</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>[HTHG,HTAG,HTR]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>100</v>
-      </c>
-      <c r="F43" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>7 de 10</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>[HTHG,HTAG,HTR]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Teste 1</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>E0</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>8 de 10</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>[HTHG,HTAG,HTR]</t>
+          <t>[HTHG,HTAG,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR]</t>
         </is>
       </c>
     </row>
